--- a/biology/Médecine/Charles-Marie_Simon/Charles-Marie_Simon.xlsx
+++ b/biology/Médecine/Charles-Marie_Simon/Charles-Marie_Simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Charles-Marie Simon, né à Machault (Ardennes) en 1782 et mort à Reims le 9 février 1830, est un médecin français. 
 </t>
@@ -511,14 +523,51 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut docteur en médecine de la Faculté de Paris, professeur à l’École secondaire de médecine de Reims, officier de l’Université, chirurgien en chef adjoint de l’Hôtel-Dieu de Reims
-Il soutient, en 1809 à Paris, sa thèse « Dissertation du l’Hermatémèse »[1].
+Il soutient, en 1809 à Paris, sa thèse « Dissertation du l’Hermatémèse ».
 Bienfaiteur des hospices, il légua une somme de 40.000 francs, affectée à la construction d’un asile pour les aliéné. 
-Il mourut célibataire et repose au cimetière du Nord de Reims[2].
-Hommage
-Son nom a été donné à la rue ou étaient établis au n° 51, l’école de médecine et pharmacie, dirigée en 1910 par le docteur Jean-Baptiste Langlet (qui fut maire de Reims de 1908 à 1919) et au n° 53, l’hôpital civil (devenu aujourd’hui le musée Saint-Remi)[3], rue Simon.
+Il mourut célibataire et repose au cimetière du Nord de Reims.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charles-Marie_Simon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles-Marie_Simon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom a été donné à la rue ou étaient établis au n° 51, l’école de médecine et pharmacie, dirigée en 1910 par le docteur Jean-Baptiste Langlet (qui fut maire de Reims de 1908 à 1919) et au n° 53, l’hôpital civil (devenu aujourd’hui le musée Saint-Remi), rue Simon.
 </t>
         </is>
       </c>
